--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Wnt1-Fzd3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Wnt1-Fzd3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>Wnt1</t>
+  </si>
+  <si>
+    <t>Fzd3</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
-    <t>Wnt1</t>
-  </si>
-  <si>
-    <t>Fzd3</t>
-  </si>
-  <si>
-    <t>ECs</t>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +528,7 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -534,46 +537,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.2283393333333333</v>
+        <v>0.131499</v>
       </c>
       <c r="H2">
-        <v>0.685018</v>
+        <v>0.394497</v>
       </c>
       <c r="I2">
-        <v>0.9040802643804376</v>
+        <v>0.3654391092296077</v>
       </c>
       <c r="J2">
-        <v>0.9040802643804375</v>
+        <v>0.3654391092296077</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.173174</v>
+        <v>0.3643233333333333</v>
       </c>
       <c r="N2">
-        <v>0.519522</v>
+        <v>1.09297</v>
       </c>
       <c r="O2">
-        <v>0.0473074116693291</v>
+        <v>0.09146135066097912</v>
       </c>
       <c r="P2">
-        <v>0.0473074116693291</v>
+        <v>0.09146135066097912</v>
       </c>
       <c r="Q2">
-        <v>0.03954243571066667</v>
+        <v>0.04790815401</v>
       </c>
       <c r="R2">
-        <v>0.3558819213960001</v>
+        <v>0.43117338609</v>
       </c>
       <c r="S2">
-        <v>0.04276969724916126</v>
+        <v>0.033423554514485</v>
       </c>
       <c r="T2">
-        <v>0.04276969724916125</v>
+        <v>0.033423554514485</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,7 +590,7 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -596,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.2283393333333333</v>
+        <v>0.131499</v>
       </c>
       <c r="H3">
-        <v>0.685018</v>
+        <v>0.394497</v>
       </c>
       <c r="I3">
-        <v>0.9040802643804376</v>
+        <v>0.3654391092296077</v>
       </c>
       <c r="J3">
-        <v>0.9040802643804375</v>
+        <v>0.3654391092296077</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +623,22 @@
         <v>2.642808</v>
       </c>
       <c r="O3">
-        <v>0.2406527654632456</v>
+        <v>0.2211540931751474</v>
       </c>
       <c r="P3">
-        <v>0.2406527654632456</v>
+        <v>0.2211540931751474</v>
       </c>
       <c r="Q3">
-        <v>0.2011523389493333</v>
+        <v>0.115842203064</v>
       </c>
       <c r="R3">
-        <v>1.810371050544</v>
+        <v>1.042579827576</v>
       </c>
       <c r="S3">
-        <v>0.2175694158238945</v>
+        <v>0.08081835481240755</v>
       </c>
       <c r="T3">
-        <v>0.2175694158238945</v>
+        <v>0.08081835481240755</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,7 +652,7 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -658,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.2283393333333333</v>
+        <v>0.131499</v>
       </c>
       <c r="H4">
-        <v>0.685018</v>
+        <v>0.394497</v>
       </c>
       <c r="I4">
-        <v>0.9040802643804376</v>
+        <v>0.3654391092296077</v>
       </c>
       <c r="J4">
-        <v>0.9040802643804375</v>
+        <v>0.3654391092296077</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,33 +679,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.606500333333333</v>
+        <v>2.721212</v>
       </c>
       <c r="N4">
-        <v>7.819501</v>
+        <v>8.163636</v>
       </c>
       <c r="O4">
-        <v>0.7120398228674253</v>
+        <v>0.6831451685449673</v>
       </c>
       <c r="P4">
-        <v>0.7120398228674253</v>
+        <v>0.6831451685449673</v>
       </c>
       <c r="Q4">
-        <v>0.5951665484464445</v>
+        <v>0.357836656788</v>
       </c>
       <c r="R4">
-        <v>5.356498936018</v>
+        <v>3.220529911092</v>
       </c>
       <c r="S4">
-        <v>0.6437411513073819</v>
+        <v>0.2496479618675831</v>
       </c>
       <c r="T4">
-        <v>0.6437411513073817</v>
+        <v>0.2496479618675831</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
@@ -711,7 +714,7 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -720,46 +723,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.024226</v>
+        <v>0.131499</v>
       </c>
       <c r="H5">
-        <v>0.07267799999999999</v>
+        <v>0.394497</v>
       </c>
       <c r="I5">
-        <v>0.09591973561956246</v>
+        <v>0.3654391092296077</v>
       </c>
       <c r="J5">
-        <v>0.09591973561956245</v>
+        <v>0.3654391092296077</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.173174</v>
+        <v>0.016887</v>
       </c>
       <c r="N5">
-        <v>0.519522</v>
+        <v>0.050661</v>
       </c>
       <c r="O5">
-        <v>0.0473074116693291</v>
+        <v>0.004239387618906157</v>
       </c>
       <c r="P5">
-        <v>0.0473074116693291</v>
+        <v>0.004239387618906157</v>
       </c>
       <c r="Q5">
-        <v>0.004195313324</v>
+        <v>0.002220623613</v>
       </c>
       <c r="R5">
-        <v>0.037757819916</v>
+        <v>0.019985612517</v>
       </c>
       <c r="S5">
-        <v>0.004537714420167851</v>
+        <v>0.001549238035132094</v>
       </c>
       <c r="T5">
-        <v>0.004537714420167851</v>
+        <v>0.001549238035132094</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +785,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.024226</v>
+        <v>0.2283393333333333</v>
       </c>
       <c r="H6">
-        <v>0.07267799999999999</v>
+        <v>0.685018</v>
       </c>
       <c r="I6">
-        <v>0.09591973561956246</v>
+        <v>0.6345608907703922</v>
       </c>
       <c r="J6">
-        <v>0.09591973561956245</v>
+        <v>0.6345608907703922</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.8809360000000001</v>
+        <v>0.3643233333333333</v>
       </c>
       <c r="N6">
-        <v>2.642808</v>
+        <v>1.09297</v>
       </c>
       <c r="O6">
-        <v>0.2406527654632456</v>
+        <v>0.09146135066097912</v>
       </c>
       <c r="P6">
-        <v>0.2406527654632456</v>
+        <v>0.09146135066097912</v>
       </c>
       <c r="Q6">
-        <v>0.021341555536</v>
+        <v>0.08318934705111111</v>
       </c>
       <c r="R6">
-        <v>0.192073999824</v>
+        <v>0.74870412346</v>
       </c>
       <c r="S6">
-        <v>0.02308334963935109</v>
+        <v>0.05803779614649411</v>
       </c>
       <c r="T6">
-        <v>0.02308334963935109</v>
+        <v>0.05803779614649411</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +847,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.024226</v>
+        <v>0.2283393333333333</v>
       </c>
       <c r="H7">
-        <v>0.07267799999999999</v>
+        <v>0.685018</v>
       </c>
       <c r="I7">
-        <v>0.09591973561956246</v>
+        <v>0.6345608907703922</v>
       </c>
       <c r="J7">
-        <v>0.09591973561956245</v>
+        <v>0.6345608907703922</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +865,152 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.606500333333333</v>
+        <v>0.8809360000000001</v>
       </c>
       <c r="N7">
-        <v>7.819501</v>
+        <v>2.642808</v>
       </c>
       <c r="O7">
-        <v>0.7120398228674253</v>
+        <v>0.2211540931751474</v>
       </c>
       <c r="P7">
-        <v>0.7120398228674253</v>
+        <v>0.2211540931751474</v>
       </c>
       <c r="Q7">
-        <v>0.06314507707533333</v>
+        <v>0.2011523389493333</v>
       </c>
       <c r="R7">
-        <v>0.5683056936779999</v>
+        <v>1.810371050544</v>
       </c>
       <c r="S7">
-        <v>0.06829867156004352</v>
+        <v>0.1403357383627399</v>
       </c>
       <c r="T7">
-        <v>0.06829867156004352</v>
+        <v>0.1403357383627399</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.2283393333333333</v>
+      </c>
+      <c r="H8">
+        <v>0.685018</v>
+      </c>
+      <c r="I8">
+        <v>0.6345608907703922</v>
+      </c>
+      <c r="J8">
+        <v>0.6345608907703922</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>2.721212</v>
+      </c>
+      <c r="N8">
+        <v>8.163636</v>
+      </c>
+      <c r="O8">
+        <v>0.6831451685449673</v>
+      </c>
+      <c r="P8">
+        <v>0.6831451685449673</v>
+      </c>
+      <c r="Q8">
+        <v>0.6213597339386667</v>
+      </c>
+      <c r="R8">
+        <v>5.592237605448</v>
+      </c>
+      <c r="S8">
+        <v>0.4334972066773842</v>
+      </c>
+      <c r="T8">
+        <v>0.4334972066773842</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.2283393333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.685018</v>
+      </c>
+      <c r="I9">
+        <v>0.6345608907703922</v>
+      </c>
+      <c r="J9">
+        <v>0.6345608907703922</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.016887</v>
+      </c>
+      <c r="N9">
+        <v>0.050661</v>
+      </c>
+      <c r="O9">
+        <v>0.004239387618906157</v>
+      </c>
+      <c r="P9">
+        <v>0.004239387618906157</v>
+      </c>
+      <c r="Q9">
+        <v>0.003855966322</v>
+      </c>
+      <c r="R9">
+        <v>0.034703696898</v>
+      </c>
+      <c r="S9">
+        <v>0.002690149583774063</v>
+      </c>
+      <c r="T9">
+        <v>0.002690149583774063</v>
       </c>
     </row>
   </sheetData>
